--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8F247-FB89-4A91-B8B0-3FA3EFC9417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01404F5F-07BA-4A65-89C2-7E8E9DD522E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCBD3D0E-B379-452B-BE7E-0B587C9294B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
   <si>
     <t>Por definir</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Tarea</t>
   </si>
   <si>
-    <t>Por aprobar</t>
-  </si>
-  <si>
     <t>Responsable (s)</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>Diseño del Activity Principal de la App</t>
-  </si>
-  <si>
-    <t>Diseño del Activity(ies) de Preferencias para usuario recien registrado</t>
   </si>
   <si>
     <t>Programación Logica del Activity Principal de la App</t>
@@ -179,12 +173,6 @@
     <t>Validación de que el correo ingresado si este registrado, de lo contrario se le pregunta si quiere registrarse y se hace conexión con el Activity Login.</t>
   </si>
   <si>
-    <t>Boton para guardar las preferencias.</t>
-  </si>
-  <si>
-    <t>Se presentaran una serie de Checkbox con actividades y preferencias del usuario.</t>
-  </si>
-  <si>
     <t>Visualización de un MapView con sus controles básicos.</t>
   </si>
   <si>
@@ -224,12 +212,6 @@
     <t>Conexión con el Activity Navegar en Pagina del Sitio, enviar la url del sitio web en una variable tipo String -&gt; Botón Pagina del Sitio.</t>
   </si>
   <si>
-    <t>Conexión con la parte grafica para ubicar la información extraida de la API en los TextView.</t>
-  </si>
-  <si>
-    <t>Consumo de la API Places para obtener la información del lugar seleccionado por el usuario.</t>
-  </si>
-  <si>
     <t>Dependiendo del sitio elegido por el usuario se hara conexión con el Activity Mostrar Información del Lugar.</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>Segundo filtro solo para mostrar los sitios de interes en un rango o radar de distancia máximo previamente elegido por el usuario.</t>
   </si>
   <si>
-    <t>Filtrado de sitios de preferencia del usuario emparejando las preferencias que el usuario selecciono en conjunto con el buscador de la API de Places.</t>
-  </si>
-  <si>
     <t>Programación de controles básicos del mapa.</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
     <t>Implementación de las API de Google Maps Platform en el Manifest de la App.</t>
   </si>
   <si>
-    <t>Se verifica si es la primera vez que se inicia sesión o no se tienen las preferencias del usuario que inicio sesión, si es asi se hace conexión con el Activity(ies) de Preferencias para usuario recien registrado.</t>
-  </si>
-  <si>
     <t>Visualización de una imagen del lugar -&gt; Image View</t>
   </si>
   <si>
@@ -279,6 +255,104 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del Activity(ies) de Selección de Actividad </t>
+  </si>
+  <si>
+    <t>Se presentaran una serie de Checkbox/Cardviews con actividades</t>
+  </si>
+  <si>
+    <t>Boton para buscar las actividades seleccionadas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consumo de la API Places para obtener la información del lugar seleccionado por el usuario. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Informacion desde Base de datos de sitios en Real Time Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conexión con la parte grafica para ubicar la información extraida de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Base de datos de sitios en Real Time Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> en los TextView.</t>
+    </r>
+  </si>
+  <si>
+    <t>No / No necesario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se verifica si es la primera vez que se inicia sesión o no se tienen las preferencias del usuario que inicio sesión, si es asi se hace conexión con el Activity(ies) de Preferencias para usuario recien registrado. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Se obtienen las actividades seleccionadas en el Activity Seleccionar Actividad </t>
+    </r>
+  </si>
+  <si>
+    <t>No / Se cambio (Si)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filtrado de sitios de preferencia del usuario emparejando las preferencias que el usuario selecciono en conjunto con el buscador de la API de Places. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Generación de base de datos de Sitios con GeoFire en Real Tiemm DataBase para Query de busqueda de sitios</t>
+    </r>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Yaned</t>
   </si>
 </sst>
 </file>
@@ -476,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,6 +640,24 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,22 +676,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,7 +1057,7 @@
   <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,36 +1081,36 @@
         <v>8</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -1033,23 +1119,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -1058,23 +1144,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>0</v>
@@ -1083,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>0</v>
@@ -1113,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="K6" s="13"/>
     </row>
@@ -1144,28 +1230,28 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>12</v>
+      <c r="C8" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>0</v>
@@ -1177,100 +1263,100 @@
         <v>0</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+      <c r="B12" s="31">
         <f>B8+1</f>
         <v>5</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>11</v>
+      <c r="C12" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>0</v>
@@ -1282,45 +1368,45 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
@@ -1332,45 +1418,45 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
@@ -1382,20 +1468,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -1407,20 +1493,20 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>0</v>
@@ -1432,20 +1518,20 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>0</v>
@@ -1457,25 +1543,25 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+      <c r="B20" s="40">
         <f>B12+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>13</v>
+      <c r="C20" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>0</v>
@@ -1487,20 +1573,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>0</v>
@@ -1512,20 +1598,20 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>0</v>
@@ -1537,20 +1623,20 @@
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>0</v>
@@ -1562,25 +1648,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="39">
+      <c r="B24" s="31">
         <f>B20+1</f>
         <v>7</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>14</v>
+      <c r="C24" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>0</v>
@@ -1592,20 +1678,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>0</v>
@@ -1617,25 +1703,25 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
+      <c r="B26" s="40">
         <f>B24+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>16</v>
+      <c r="C26" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>0</v>
@@ -1647,20 +1733,20 @@
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="23" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>0</v>
@@ -1672,25 +1758,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="39">
+      <c r="B28" s="31">
         <f>B26+1</f>
         <v>9</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>15</v>
+      <c r="C28" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>0</v>
@@ -1702,20 +1788,20 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>0</v>
@@ -1727,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+      <c r="B30" s="40">
         <f>B28+1</f>
         <v>10</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>19</v>
+      <c r="C30" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>0</v>
@@ -1757,45 +1843,45 @@
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="41"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="I31" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>0</v>
@@ -1807,20 +1893,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>0</v>
@@ -1832,25 +1918,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39">
+      <c r="B34" s="31">
         <f>B30+1</f>
         <v>11</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>20</v>
+      <c r="C34" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>0</v>
@@ -1862,20 +1948,20 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>0</v>
@@ -1887,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
+      <c r="B36" s="40">
         <f>B34+1</f>
         <v>12</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>18</v>
+      <c r="C36" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>0</v>
@@ -1917,20 +2003,20 @@
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>0</v>
@@ -1942,20 +2028,20 @@
         <v>0</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>0</v>
@@ -1967,25 +2053,25 @@
         <v>0</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
         <f>B36+1</f>
         <v>13</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>17</v>
+      <c r="C39" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>0</v>
@@ -1997,20 +2083,20 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="J39" s="44" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>0</v>
@@ -2022,20 +2108,20 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>0</v>
@@ -2047,20 +2133,20 @@
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>0</v>
@@ -2072,20 +2158,20 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>0</v>
@@ -2097,20 +2183,20 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>0</v>
@@ -2122,20 +2208,20 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="41"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B45" s="32"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>0</v>
@@ -2147,20 +2233,20 @@
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>0</v>
@@ -2172,20 +2258,20 @@
         <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>0</v>
@@ -2197,20 +2283,20 @@
         <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>0</v>
@@ -2222,25 +2308,25 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="40">
         <f>B39+1</f>
         <v>14</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>21</v>
+      <c r="C49" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>0</v>
@@ -2252,70 +2338,70 @@
         <v>0</v>
       </c>
       <c r="H49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="41"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="I51" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>0</v>
@@ -2327,50 +2413,50 @@
         <v>0</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="39">
+      <c r="B53" s="31">
         <f>B49+1</f>
         <v>15</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I53" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="38"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>0</v>
@@ -2382,35 +2468,17 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C53:C54"/>
@@ -2419,6 +2487,24 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C39:C48"/>
     <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B12:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:J2 C3:J54">
     <cfRule type="colorScale" priority="12">
@@ -2476,6 +2562,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
